--- a/Model/output/midresults.xlsx
+++ b/Model/output/midresults.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Studie TUD\Msc\Year 6\Q2 Subsurface storage for energy, water and climate\Project\design-ASR-CEGM2006\Model\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7B99DF-DAB5-411B-B262-6C5F896871CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E8F03B-D388-4E54-8273-F8EE7BFE6661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="raw" sheetId="2" r:id="rId2"/>
+    <sheet name="al raw" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="445">
   <si>
     <t>kh</t>
   </si>
@@ -6365,6 +6366,270 @@
       </rPr>
       <t>: 'NoneType' object has no attribute 'blocks'</t>
     </r>
+  </si>
+  <si>
+    <t>Start 20 layers at 19:33</t>
+  </si>
+  <si>
+    <t>Expected runtime end at 22:3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10%|███████▉                                                                       | 1/10 [23:27&lt;3:31:05, 1407.28s/it]</t>
+  </si>
+  <si>
+    <t>10_0.5_0_3177_0.23709677419360864</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10%|███████▉                                                                       | 1/10 [23:30&lt;3:31:33, 1410.42s/it]</t>
+  </si>
+  <si>
+    <t>10_0.5_0_3150_0.19354838709682456</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10%|███████▉                                                                       | 1/10 [23:36&lt;3:32:30, 1416.75s/it]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20%|███████████████▊                                                               | 2/10 [42:36&lt;2:47:23, 1255.44s/it]</t>
+  </si>
+  <si>
+    <t>10_0.5_1_3219_0.30483870967749505</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20%|███████████████▊                                                               | 2/10 [42:37&lt;2:47:22, 1255.34s/it]</t>
+  </si>
+  <si>
+    <t>10_0.5_1_3206_0.2838709677420064</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20%|███████████████▊                                                               | 2/10 [42:56&lt;2:48:42, 1265.33s/it]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30%|███████████████████████                                                      | 3/10 [1:01:14&lt;2:19:07, 1192.54s/it]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30%|███████████████████████                                                      | 3/10 [1:01:23&lt;2:19:34, 1196.30s/it]</t>
+  </si>
+  <si>
+    <t>10_0.5_2_3231_0.32419354838717684</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30%|███████████████████████                                                      | 3/10 [1:01:47&lt;2:20:29, 1204.29s/it]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40%|██████████████████████████████▊                                              | 4/10 [1:19:41&lt;1:55:53, 1158.86s/it]</t>
+  </si>
+  <si>
+    <t>10_0.5_3_3256_0.3645161290323473</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40%|██████████████████████████████▊                                              | 4/10 [1:20:00&lt;1:56:29, 1164.92s/it]</t>
+  </si>
+  <si>
+    <t>10_0.5_3_3251_0.3564516129033132</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40%|██████████████████████████████▊                                              | 4/10 [1:20:29&lt;1:57:10, 1171.71s/it]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50%|██████████████████████████████████████▌                                      | 5/10 [1:38:01&lt;1:34:47, 1137.59s/it]</t>
+  </si>
+  <si>
+    <t>10_0.5_4_3271_0.3887096774194495</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50%|██████████████████████████████████████▌                                      | 5/10 [1:38:31&lt;1:35:27, 1145.49s/it]</t>
+  </si>
+  <si>
+    <t>10_0.5_4_3267_0.3822580645162223</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 50%|██████████████████████████████████████▌                                      | 5/10 [1:39:11&lt;1:36:09, 1153.94s/it]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60%|██████████████████████████████████████████████▏                              | 6/10 [1:56:33&lt;1:15:16, 1129.10s/it]</t>
+  </si>
+  <si>
+    <t>10_0.5_5_3284_0.4096774193549382</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60%|██████████████████████████████████████████████▏                              | 6/10 [1:57:01&lt;1:15:34, 1133.64s/it]</t>
+  </si>
+  <si>
+    <t>10_0.5_5_3282_0.40645161290332454</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60%|██████████████████████████████████████████████▏                              | 6/10 [1:57:54&lt;1:16:13, 1143.32s/it]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70%|███████████████████████████████████████████████████████▎                       | 7/10 [2:14:59&lt;56:03, 1121.32s/it]</t>
+  </si>
+  <si>
+    <t>10_0.5_6_3295_0.42741935483881316</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70%|███████████████████████████████████████████████████████▎                       | 7/10 [2:15:39&lt;56:25, 1128.37s/it]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 70%|███████████████████████████████████████████████████████▎                       | 7/10 [2:16:41&lt;56:53, 1137.92s/it]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80%|███████████████████████████████████████████████████████████████▏               | 8/10 [2:33:17&lt;37:08, 1114.08s/it]</t>
+  </si>
+  <si>
+    <t>10_0.5_7_3306_0.4451612903226882</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80%|███████████████████████████████████████████████████████████████▏               | 8/10 [2:34:09&lt;37:25, 1122.70s/it]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 80%|███████████████████████████████████████████████████████████████▏               | 8/10 [2:35:17&lt;37:42, 1131.01s/it]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90%|███████████████████████████████████████████████████████████████████████        | 9/10 [2:51:46&lt;18:32, 1112.52s/it]</t>
+  </si>
+  <si>
+    <t>10_0.5_8_3315_0.4596774193549495</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90%|███████████████████████████████████████████████████████████████████████        | 9/10 [2:52:41&lt;18:39, 1119.31s/it]</t>
+  </si>
+  <si>
+    <t>10_0.5_8_3317_0.46290322580656323</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90%|███████████████████████████████████████████████████████████████████████        | 9/10 [2:53:53&lt;18:46, 1126.41s/it]</t>
+  </si>
+  <si>
+    <t>100%|██████████████████████████████████████████████████████████████████████████████| 10/10 [3:10:14&lt;00:00, 1141.42s/it]</t>
+  </si>
+  <si>
+    <t>10_0.5_9_3323_0.47258064516140413</t>
+  </si>
+  <si>
+    <t>[23.709677419360865, 30.483870967749503, 33.70967741936314, 36.45161290323473, 38.87096774194495, 40.96774193549382, 42.74193548388131, 44.51612903226882, 45.96774193549495, 47.258064516140415]</t>
+  </si>
+  <si>
+    <t>[3177, 3219, 3239, 3256, 3271, 3284, 3295, 3306, 3315, 3323]</t>
+  </si>
+  <si>
+    <t>[23.70967742 30.48387097 33.70967742 36.4516129  38.87096774 40.96774194</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42.74193548 44.51612903 45.96774194 47.25806452]</t>
+  </si>
+  <si>
+    <t>100%|██████████████████████████████████████████████████████████████████████████████| 10/10 [3:11:07&lt;00:00, 1146.79s/it]</t>
+  </si>
+  <si>
+    <t>10_0.5_9_3326_0.47741935483882453</t>
+  </si>
+  <si>
+    <t>[19.354838709682458, 28.387096774200636, 32.41935483871769, 35.645161290331316, 38.225806451622226, 40.64516129033245, 42.74193548388131, 44.51612903226882, 46.29032258065632, 47.74193548388245]</t>
+  </si>
+  <si>
+    <t>[3150, 3206, 3231, 3251, 3267, 3282, 3295, 3306, 3317, 3326]</t>
+  </si>
+  <si>
+    <t>[19.35483871 28.38709677 32.41935484 35.64516129 38.22580645 40.64516129</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42.74193548 44.51612903 46.29032258 47.74193548]</t>
+  </si>
+  <si>
+    <t>100%|██████████████████████████████████████████████████████████████████████████████| 10/10 [3:12:28&lt;00:00, 1154.87s/it]</t>
+  </si>
+  <si>
+    <t>[array([27.09677419, 31.12903226, 33.70967742, 35.80645161, 37.58064516,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       39.19354839, 40.64516129, 41.93548387, 43.06451613, 44.19354839]), array([23.70967742, 30.48387097, 33.70967742, 36.4516129 , 38.87096774,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       40.96774194, 42.74193548, 44.51612903, 45.96774194, 47.25806452]), array([19.35483871, 28.38709677, 32.41935484, 35.64516129, 38.22580645,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       40.64516129, 42.74193548, 44.51612903, 46.29032258, 47.74193548])]</t>
+  </si>
+  <si>
+    <t>DONE!</t>
+  </si>
+  <si>
+    <t>[4.6774193548404135, 5.645161290324504, 6.612903225808596, 7.419354838712006, 8.225806451615414, 8.870967741938141, 9.516129032260867, 10.161290322583595, 10.806451612906322, 11.45161290322905]</t>
+  </si>
+  <si>
+    <t>[3059, 3065, 3071, 3076, 3081, 3085, 3089, 3093, 3097, 3101]</t>
+  </si>
+  <si>
+    <t>[7.419354838712006, 8.387096774196095, 9.354838709680186, 10.161290322583595, 10.806451612906322, 11.61290322580973, 12.258064516132459, 12.741935483874503, 13.387096774197232, 14.03225806451996]</t>
+  </si>
+  <si>
+    <t>[3076, 3082, 3088, 3093, 3097, 3102, 3106, 3109, 3113, 3117]</t>
+  </si>
+  <si>
+    <t>[3093, 3098, 3103, 3108, 3113, 3117, 3121, 3124, 3128, 3131]</t>
+  </si>
+  <si>
+    <t>[10.161290322583595, 10.967741935487005, 11.774193548390413, 12.580645161293821, 13.387096774197232, 14.03225806451996, 14.677419354842685, 15.16129032258473, 15.806451612907457, 16.2903225806495]</t>
+  </si>
+  <si>
+    <t>[12.096774193551775, 14.03225806451996, 15.806451612907457, 17.419354838714277, 18.70967741935973, 20.000000000005187, 21.290322580650635, 22.419354838715414, 23.387096774199502, 24.354838709683595]</t>
+  </si>
+  <si>
+    <t>[3105, 3117, 3128, 3138, 3146, 3154, 3162, 3169, 3175, 3181]</t>
+  </si>
+  <si>
+    <t>[8.064516129034732, 10.161290322583595, 12.096774193551775, 13.870967741939275, 15.483870967746094, 16.77419354839155, 18.225806451617686, 19.516129032263137, 20.64516129032791, 21.77419354839268]</t>
+  </si>
+  <si>
+    <t>[3080, 3093, 3105, 3116, 3126, 3134, 3143, 3151, 3158, 3165]</t>
+  </si>
+  <si>
+    <t>[12.096774193551775, 14.03225806451996, 15.806451612907457, 17.419354838714277, 18.70967741935973, 20.000000000005187, 21.290322580650635, 22.419354838715414, 23.387096774199502, 24.354838709683595</t>
+  </si>
+  <si>
+    <t>[15.967741935488139, 17.74193548387564, 19.193548387101778, 20.64516129032791, 21.935483870973368, 23.06451612903814, 24.193548387102908, 25.161290322587, 26.129032258071096, 26.9354838709745]</t>
+  </si>
+  <si>
+    <t>[3129, 3140, 3149, 3158, 3166, 3173, 3180, 3186, 3192, 3197]</t>
+  </si>
+  <si>
+    <t>lst = [</t>
+  </si>
+  <si>
+    <t>#         [10.161290322583595, 10.967741935487005, 11.774193548390413, 12.580645161293821, 13.387096774197232, 14.03225806451996, 14.677419354842685, 15.16129032258473, 15.806451612907457, 16.2903225806495],</t>
+  </si>
+  <si>
+    <t>#         [7.419354838712006, 8.387096774196095, 9.354838709680186, 10.161290322583595, 10.806451612906322, 11.61290322580973, 12.258064516132459, 12.741935483874503, 13.387096774197232, 14.03225806451996],</t>
+  </si>
+  <si>
+    <t>#         [4.6774193548404135, 5.645161290324504, 6.612903225808596, 7.419354838712006, 8.225806451615414, 8.870967741938141, 9.516129032260867, 10.161290322583595, 10.806451612906322, 11.45161290322905],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#         [15.967741935488139, 17.74193548387564, 19.193548387101778, 20.64516129032791, 21.935483870973368, 23.06451612903814, 24.193548387102908, 25.161290322587, 26.129032258071096, 26.9354838709745],    </t>
+  </si>
+  <si>
+    <t>#         [12.096774193551775, 14.03225806451996, 15.806451612907457, 17.419354838714277, 18.70967741935973, 20.000000000005187, 21.290322580650635, 22.419354838715414, 23.387096774199502, 24.354838709683595],</t>
+  </si>
+  <si>
+    <t>#         [8.064516129034732, 10.161290322583595, 12.096774193551775, 13.870967741939275, 15.483870967746094, 16.77419354839155, 18.225806451617686, 19.516129032263137, 20.64516129032791, 21.77419354839268],</t>
+  </si>
+  <si>
+    <t>#         [27.096774193555184, 31.129032258072233, 33.70967741936314, 35.806451612912, 37.5806451612995, 39.19354838710632, 40.64516129033245, 41.935483870977905, 43.06451612904268, 44.193548387107455],</t>
+  </si>
+  <si>
+    <t>#         [21.93548387, 25.96774194, 29.19354839, 31.77419355, 34.03225806,35.96774194, 37.74193548, 39.35483871, 40.80645161, 41.93548387],</t>
+  </si>
+  <si>
+    <t>#         [15.64516129, 20.32258065, 24.35483871, 27.58064516, 30.32258065,32.74193548, 34.83870968, 36.77419355, 38.5483871 , 40.        ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#         ]  </t>
+  </si>
+  <si>
+    <t># store_eff = np.array(lst)</t>
+  </si>
+  <si>
+    <t># k_lst = [20, 15, 10]</t>
   </si>
 </sst>
 </file>
@@ -6788,10 +7053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6925,7 +7190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="17.25" customHeight="1">
       <c r="A10">
         <v>40</v>
       </c>
@@ -6939,84 +7204,269 @@
         <v>17</v>
       </c>
     </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>424</v>
+      </c>
+      <c r="D11" t="s">
+        <v>423</v>
+      </c>
+    </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0.2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>419</v>
+      </c>
+      <c r="D13" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>430</v>
+      </c>
+      <c r="D14" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>429</v>
+      </c>
+      <c r="D15" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>427</v>
+      </c>
+      <c r="D16" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>0.35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>425</v>
+      </c>
+      <c r="D18" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -7028,8 +7478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421C6A52-60F6-4D1A-9749-366B1BECDBB0}">
   <dimension ref="A1:A451"/>
   <sheetViews>
-    <sheetView topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="E315" sqref="E315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9250,4 +9700,604 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA1827C-F851-444C-8D1E-4D43DD4E8470}">
+  <dimension ref="A1:A117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A117"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="28.5">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Model/output/midresults.xlsx
+++ b/Model/output/midresults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Studie TUD\Msc\Year 6\Q2 Subsurface storage for energy, water and climate\Project\design-ASR-CEGM2006\Model\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E8F03B-D388-4E54-8273-F8EE7BFE6661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD43C1E3-7440-4466-9463-6C3DAF5B0094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7055,13 +7055,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7482,9 +7482,9 @@
       <selection activeCell="E315" sqref="E315"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.5">
+    <row r="1" spans="1:1" ht="30">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -9710,9 +9710,9 @@
       <selection sqref="A1:A117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.5">
+    <row r="1" spans="1:1" ht="30">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
